--- a/medicine/Enfance/David_Scott_Daniell/David_Scott_Daniell.xlsx
+++ b/medicine/Enfance/David_Scott_Daniell/David_Scott_Daniell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Scott Daniell (né le 1er juillet 1906 à Londres, mort le 29 août 1965) est un journaliste, historien, scénariste et auteur de romans anglais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Scott Daniell (né le 1er juillet 1906 à Londres, mort le 29 août 1965) est un journaliste, historien, scénariste et auteur de romans anglais.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il publie son premier roman en 1940 puis, pendant la Deuxième Guerre mondiale, est capitaine dans la Royal Engineers. Ses œuvres suivantes incluent des romans de fiction et de non fiction (dont plusieurs histoires de régiment) ainsi que des scénarios pour la télévision, le cinéma et la radio[2]. Winston Churchill le choisit pour écrire l'histoire de son régiment, le 4e des Hussards de la reine (4th Queen's Own Hussars)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie son premier roman en 1940 puis, pendant la Deuxième Guerre mondiale, est capitaine dans la Royal Engineers. Ses œuvres suivantes incluent des romans de fiction et de non fiction (dont plusieurs histoires de régiment) ainsi que des scénarios pour la télévision, le cinéma et la radio. Winston Churchill le choisit pour écrire l'histoire de son régiment, le 4e des Hussards de la reine (4th Queen's Own Hussars).
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Œuvre parue en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(la première date est celle de la première édition originale)
-Romans pour la jeunesse
-Série Cricketto (By Jiminy)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(la première date est celle de la première édition originale)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David_Scott_Daniell</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Scott_Daniell</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre parue en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Série Cricketto (By Jiminy)
 1962 : Cricketto de Napoli (By Jiminy). Hachette, coll. Nouvelle Bibliothèque rose no 129, 1963. Illustré par François Batet. Traduit par Jean Muray.
 1963 : Cricketto dans l'île mystérieuse (By Jiminy ahoy !). Hachette, coll. Nouvelle Bibliothèque rose no 198, 1965. Ill. François Batet. Trad. Jean Muray.
 1963 : Cricketto et le petit prince (Saved by Jiminy). Hachette, coll. Nouvelle Bibliothèque rose no 152, 1964. Ill. François Batet. Trad. Jean Muray.
